--- a/Alex Code/Results/02242019/Log.xlsx
+++ b/Alex Code/Results/02242019/Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16058023-A772-4371-8365-C5583EDA84D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD547E83-291C-4A86-8FA4-BD797590748C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="1584" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedCNN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Epochs</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>30, 50</t>
+  </si>
+  <si>
+    <t>15, 30, 45</t>
+  </si>
+  <si>
+    <t>lost, but roughly 0.72</t>
+  </si>
+  <si>
+    <t>lost, but roughly 0.80</t>
+  </si>
+  <si>
+    <t>roughly 0.72</t>
+  </si>
+  <si>
+    <t>10, 20, 30</t>
   </si>
 </sst>
 </file>
@@ -358,35 +373,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -394,19 +412,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
         <v>0.79910000000000003</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.72030000000000005</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.82350000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>500</v>
       </c>
@@ -414,19 +435,166 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.81779999999999997</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.72219999999999995</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.82350000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.70240000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>0.73</v>
+      </c>
+      <c r="G8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="G9">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.76190000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Alex Code/Results/02242019/Log.xlsx
+++ b/Alex Code/Results/02242019/Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD547E83-291C-4A86-8FA4-BD797590748C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263077A3-304C-4A81-A796-B94C8AFA02D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1584" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedCNN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Epochs</t>
   </si>
@@ -43,19 +43,13 @@
     <t>30, 50</t>
   </si>
   <si>
-    <t>15, 30, 45</t>
-  </si>
-  <si>
-    <t>lost, but roughly 0.72</t>
-  </si>
-  <si>
-    <t>lost, but roughly 0.80</t>
-  </si>
-  <si>
-    <t>roughly 0.72</t>
-  </si>
-  <si>
     <t>10, 20, 30</t>
+  </si>
+  <si>
+    <t>30,50</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
   </si>
 </sst>
 </file>
@@ -373,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,6 +397,9 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -461,16 +458,16 @@
         <v>0.4</v>
       </c>
       <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.82350000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -478,45 +475,45 @@
         <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>0.77329999999999999</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="F5">
-        <v>0.74399999999999999</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="G5">
-        <v>0.82350000000000001</v>
+        <v>0.86760000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>0.79910000000000003</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.73329999999999995</v>
+        <v>0.82030000000000003</v>
       </c>
       <c r="G6">
-        <v>0.86760000000000004</v>
+        <v>0.70240000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -527,19 +524,19 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>0.82030000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="G7">
-        <v>0.70240000000000002</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -553,16 +550,16 @@
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="F8">
-        <v>0.73</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="G8">
-        <v>0.88</v>
+        <v>0.86760000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -570,7 +567,7 @@
         <v>500</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>0.3</v>
@@ -579,22 +576,111 @@
         <v>1500</v>
       </c>
       <c r="E9">
-        <v>0.83879999999999999</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="F9">
-        <v>0.74250000000000005</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="G9">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>1500</v>
+      </c>
+      <c r="E10">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G10">
         <v>0.86760000000000004</v>
       </c>
-      <c r="H9">
-        <v>0.76190000000000002</v>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+      <c r="E11">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12">
+        <v>0.9486</v>
+      </c>
+      <c r="F12">
+        <v>0.8407</v>
+      </c>
+      <c r="G12">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>1500</v>
+      </c>
+      <c r="E13">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.88239999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B5" twoDigitTextYear="1"/>
+    <ignoredError sqref="B4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Alex Code/Results/02242019/Log.xlsx
+++ b/Alex Code/Results/02242019/Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263077A3-304C-4A81-A796-B94C8AFA02D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1845B-344C-4FB7-B2FC-F374CF842408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1128" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedCNN" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Alex Code/Results/02242019/Log.xlsx
+++ b/Alex Code/Results/02242019/Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1845B-344C-4FB7-B2FC-F374CF842408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9D6E6-BB0C-4464-8593-14D82347F65E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1128" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="2232" windowWidth="17280" windowHeight="8568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedCNN" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +111,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936BF947-7989-4334-9DF3-2B2E3191214C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="2011680"/>
+          <a:ext cx="2308860" cy="1531731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +689,7 @@
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -650,7 +708,7 @@
       <c r="F12">
         <v>0.8407</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.91180000000000005</v>
       </c>
     </row>
@@ -679,8 +737,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B4" twoDigitTextYear="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Alex Code/Results/02242019/Log.xlsx
+++ b/Alex Code/Results/02242019/Log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9D6E6-BB0C-4464-8593-14D82347F65E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA310916-9335-406B-8168-12F97DCFFA2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2232" windowWidth="17280" windowHeight="8568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2724" yWindow="2352" windowWidth="17280" windowHeight="8568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedCNN" sheetId="1" r:id="rId1"/>
@@ -118,15 +118,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7731</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1402191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -149,7 +149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4427220" y="2011680"/>
+          <a:off x="4518660" y="1882140"/>
           <a:ext cx="2308860" cy="1531731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -428,7 +428,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
